--- a/Databases/airfields_database.xlsx
+++ b/Databases/airfields_database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
   <si>
     <t>MONTAUBAN</t>
   </si>
@@ -96,9 +96,6 @@
     <t>PISTES</t>
   </si>
   <si>
-    <t>nombres</t>
-  </si>
-  <si>
     <t>montgolfière</t>
   </si>
   <si>
@@ -354,10 +351,185 @@
     <t>restaurants</t>
   </si>
   <si>
-    <t>Montalbanais - 300, rue Maurice Delpouys - 82000 MONTAUBAN</t>
-  </si>
-  <si>
     <t>contact@aeroclubmontalbanais.com</t>
+  </si>
+  <si>
+    <t>GAILLAC LISLE SUR TARN</t>
+  </si>
+  <si>
+    <t>AD 2 LFDG ATT 01</t>
+  </si>
+  <si>
+    <t>LFDG</t>
+  </si>
+  <si>
+    <t>2.5 km SW Gaillac</t>
+  </si>
+  <si>
+    <t>81-Tarn</t>
+  </si>
+  <si>
+    <t>ACB du Gaillacois</t>
+  </si>
+  <si>
+    <t>BP 80115 - 81604 Gaillac CEDEX</t>
+  </si>
+  <si>
+    <t>Montalbanais</t>
+  </si>
+  <si>
+    <t>300, rue Maurice Delpouys - 82000 MONTAUBAN</t>
+  </si>
+  <si>
+    <t>limitation aux seuls pilotes autorisés selon les consignes locales</t>
+  </si>
+  <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>pieds</t>
+  </si>
+  <si>
+    <t>43 52 59 N</t>
+  </si>
+  <si>
+    <t>001 52 27 E</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>1124 x 60</t>
+  </si>
+  <si>
+    <t>non revêtue</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>balises amovibles à usages restreints</t>
+  </si>
+  <si>
+    <t>présence d'arbres dans les trouées de DEC</t>
+  </si>
+  <si>
+    <t>eviter le survol de la ville de Gaillac au Nord-Est</t>
+  </si>
+  <si>
+    <t>entraînements "basse hauteur" interdits si tour de piste en cours</t>
+  </si>
+  <si>
+    <t>pour les entraînements, le circuit de tour de piste est précisé dans les consignes locales d'exploitation affichées sur l'aérodrome</t>
+  </si>
+  <si>
+    <t>consigne 5</t>
+  </si>
+  <si>
+    <t>en l'abscence de panneaux indiquant les points d'arrêt, la pénétration et l'alignement sont autorisés seulement en bout de piste</t>
+  </si>
+  <si>
+    <t>TOULOUSE LASBORDES</t>
+  </si>
+  <si>
+    <t>AD 2 LFCL APP 01</t>
+  </si>
+  <si>
+    <t>LFCL</t>
+  </si>
+  <si>
+    <t>4 km E Toulouse</t>
+  </si>
+  <si>
+    <t>31-Haute Garonne</t>
+  </si>
+  <si>
+    <t>AUATBL (association des usagers de l'aérodrome de Toulouse-Balma-Lasbordes)</t>
+  </si>
+  <si>
+    <t>Toulouse Métropole</t>
+  </si>
+  <si>
+    <t>23 Avenue Jean-René Lagasse, 31130 Balma</t>
+  </si>
+  <si>
+    <t>auatbl@free.fr</t>
+  </si>
+  <si>
+    <t>non agréé</t>
+  </si>
+  <si>
+    <t>24 H</t>
+  </si>
+  <si>
+    <t>carte TOTAL</t>
+  </si>
+  <si>
+    <t>43 35 16 N</t>
+  </si>
+  <si>
+    <t>001 29 55 E</t>
+  </si>
+  <si>
+    <t>122.7</t>
+  </si>
+  <si>
+    <t>950 x 23</t>
+  </si>
+  <si>
+    <t>par vent supérieur à 25 kt, fortes turbulences aux abords de l'AD</t>
+  </si>
+  <si>
+    <t>danger 2</t>
+  </si>
+  <si>
+    <t>forte activité de planeurs aux abords de l'aérodrome de Toulouse - Bourg Saint Bernard (A/A 118-850)</t>
+  </si>
+  <si>
+    <t>au départ: 1) RWY 33: Après décollage, monter vers 2000 ft AMSL en
+restant en bordure Est de l’autoroute A61, puis virer
+sur le centre commercial, survoler l’autoroute A68 et
+poursuivre sur l’autoroute jusqu’au point DN au Nord
+de l’agglomération de Montrabé. 2) RWY 15: Après décollage, monter vers 2000 ft AMSL, virer
+après le centre commercial vers le point DS.</t>
+  </si>
+  <si>
+    <t>à l'arrivée: pour tout QFU, arrivées par le point AE.</t>
+  </si>
+  <si>
+    <t>piste 2</t>
+  </si>
+  <si>
+    <t>350 x 20</t>
+  </si>
+  <si>
+    <t>entraînements en tour de piste: 1) RWY 33: Après branche vent traversier, intégration en vent
+arrière par la verticale du Hangar Sironis.
+Dernier virage à la verticale du centre commercial. 2) RWY 15: Après branche vent traversier, intégration en vent
+arrière par le travers du château de Pechestier.
+Dernier virage à la verticale du CEAT.</t>
+  </si>
+  <si>
+    <t>circuits basse hauteur interdits sauf urgence.</t>
+  </si>
+  <si>
+    <t>Les entraînements en tour de piste sont autorisés uniquement (ETE : - 1HR) :
+* en semaine de 08:00 à 19:00. 
+* le samedi de 08:00 à 11:00 et de 14:00 à 18:00.
+* le dimanche de 08:00 à 11:00. 
+* les jours fériés : 
+entre le 01/10 et 30/04 de 08:00 à 11:00 et de 14:00
+à 19:00.
+entre le 01/05 et 30/09 : de 08:00 à 11:00.</t>
+  </si>
+  <si>
+    <t>consigne 6</t>
+  </si>
+  <si>
+    <t>Limitation à 4 avions simultanés en entraînement tour</t>
+  </si>
+  <si>
+    <t>de piste tous les jours sauf dimanche et à 2 les dimanches.</t>
   </si>
 </sst>
 </file>
@@ -402,10 +574,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -710,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +898,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -734,7 +909,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -742,7 +917,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -758,44 +933,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10">
         <v>563664744</v>
@@ -803,121 +981,121 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
         <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>-1</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
         <v>85</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
         <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
         <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
         <v>95</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -925,7 +1103,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -933,7 +1111,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -966,7 +1144,7 @@
         <v>353</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,14 +1170,14 @@
       <c r="B34" s="1">
         <v>125.175</v>
       </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>129.30000000000001</v>
       </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1051,42 +1229,42 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
         <v>31</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1096,7 +1274,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1104,12 +1282,12 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50">
         <v>13</v>
@@ -1122,18 +1300,18 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53">
         <v>134</v>
@@ -1142,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,15 +1331,15 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
         <v>36</v>
-      </c>
-      <c r="B55" t="s">
-        <v>37</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -1169,26 +1347,26 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s">
         <v>38</v>
-      </c>
-      <c r="B56" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57">
         <v>5.7</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>970</v>
@@ -1205,12 +1383,12 @@
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60">
         <v>970</v>
@@ -1229,7 +1407,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62">
         <v>785</v>
@@ -1248,102 +1426,102 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
         <v>55</v>
-      </c>
-      <c r="B68" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" t="s">
         <v>57</v>
-      </c>
-      <c r="B69" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
         <v>88</v>
-      </c>
-      <c r="B73" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
         <v>108</v>
-      </c>
-      <c r="B75" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -1351,10 +1529,10 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
         <v>101</v>
-      </c>
-      <c r="B78" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1367,24 +1545,1325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection sqref="A1:D78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>563579852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>441</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>119.95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>251</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58">
+        <v>1012</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>1022</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60">
+        <v>1124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>1124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62">
+        <v>1022</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1012</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>534438297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>460</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>335</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56">
+        <v>5.7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57">
+        <v>950</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>950</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59">
+        <v>950</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>950</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61">
+        <v>810</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>950</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>